--- a/source/q2/Induced_Drag_Data.xlsx
+++ b/source/q2/Induced_Drag_Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\OneDrive\Documents\EAE130B\atlas-aircraft\source\q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC4E37-32A2-4B91-B382-818D23BBA931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE173FA6-24A3-494E-9AC0-6999195F8EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{513686FE-91F2-4629-A504-28A77CBB6748}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{513686FE-91F2-4629-A504-28A77CBB6748}"/>
   </bookViews>
   <sheets>
     <sheet name="Landing" sheetId="1" r:id="rId1"/>
+    <sheet name="Takeoff" sheetId="2" r:id="rId2"/>
+    <sheet name="Clean" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Landing</t>
-  </si>
-  <si>
-    <t>Landing w/ gear</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>AoA</t>
   </si>
@@ -52,12 +48,15 @@
   <si>
     <t>Clmax</t>
   </si>
+  <si>
+    <t>CD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +65,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -126,12 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -141,9 +130,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA6A58C-8437-487C-820D-76D63FD6A7BD}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,330 +458,938 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.14114299999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.6378699999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.15112600000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7383999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.161692</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.8381000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.172822</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.18449199999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.0347400000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.19667999999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.13157</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.20936099999999999</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.2273299999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B9" s="4">
+        <v>0.22250700000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.3219500000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B10" s="4">
+        <v>0.236091</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.4153799999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>-5</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.14114299999999999</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.6378699999999999</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>-4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.15112600000000001</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.7383999999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>-3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.161692</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.8381000000000001</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>-2</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.172822</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.9369000000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.18449199999999999</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.0347400000000002</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.19667999999999999</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.13157</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.20936099999999999</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.2273299999999998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.22250700000000001</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2.3219500000000002</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.236091</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.4153799999999999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
+      <c r="B11" s="4">
+        <v>0.250081</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.5075699999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.250081</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.5075699999999999</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4</v>
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.26444699999999999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.5984699999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.26444699999999999</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.5984699999999998</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.27915600000000002</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.6880199999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.27915600000000002</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.6880199999999999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>6</v>
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.29417399999999999</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.77617</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.29417399999999999</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2.77617</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7</v>
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.30946499999999999</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.8628900000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.30946499999999999</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2.8628900000000002</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8</v>
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.32499299999999998</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.9481199999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.32499299999999998</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2.9481199999999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>9</v>
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.340721</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.0318100000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.340721</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3.0318100000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>10</v>
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.35660999999999998</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.11395</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.35660999999999998</v>
-      </c>
-      <c r="C19" s="6">
-        <v>3.11395</v>
-      </c>
-      <c r="D19" s="4">
-        <v>11</v>
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.37262299999999998</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3.1944699999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0.37262299999999998</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3.1944699999999999</v>
-      </c>
-      <c r="D20" s="4">
-        <v>12</v>
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.38871800000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>3.2733500000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.38871800000000001</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3.2733500000000002</v>
-      </c>
-      <c r="D21" s="4">
-        <v>13</v>
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.40485599999999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.3505600000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.40485599999999999</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3.3505600000000002</v>
-      </c>
-      <c r="D22" s="4">
-        <v>14</v>
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.4209965</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.4260600000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.4209965</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3.4260600000000001</v>
-      </c>
-      <c r="D23" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51662B76-32E2-4250-8ADD-01C8A03B4E8B}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.19667999999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.13157</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.20936099999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.2273299999999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.22250700000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.3219500000000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.236091</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.4153799999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.250081</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.5075699999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.26444699999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.5984699999999998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.27915600000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.6880199999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.29417399999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.77617</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.30946499999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.8628900000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.32499299999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.9481199999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.340721</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.0318100000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.35660999999999998</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3.11395</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.37262299999999998</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.1944699999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.38871800000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.2733500000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.40485599999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.3505600000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.4209965</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.4260600000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124BA8F4-C184-457C-B231-4F318BFCC0CD}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.6632199999999998E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.22113</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8.4495399999999998E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.3223</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.3007199999999998E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.42283</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.10215200000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.52267</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.11191230000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.62174</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.1222689</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.7199800000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.13320029999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.81734</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.14468339999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.9137500000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.1566931</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.0091399999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.16920279999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.1034600000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.18218409999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.1966600000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.19560710000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.2886799999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.2094404</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.3794599999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.22365099999999999</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.46895</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.2382049</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.5571100000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.25306669999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.6438899999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.26819969999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.7292299999999998</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.2835665</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.81311</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.29912850000000002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.8954599999999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.31484640000000003</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.97627</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.33068009999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3.0554800000000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>